--- a/server/Solar Data.xlsx
+++ b/server/Solar Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eshan\Desktop\Coding Projects\voltWatch\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED9607-C649-4326-B9D6-50CCBC65F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F47B5-3BC8-4D36-AB67-B4F50DF9CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="15300" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="15300" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,13 @@
   <dimension ref="A1:D870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D870"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
